--- a/B2B Fluxo.xlsx
+++ b/B2B Fluxo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>B2B FLIX</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Folhetos</t>
   </si>
   <si>
-    <t>Ribeiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">RESUMO MENSAL          </t>
   </si>
   <si>
@@ -157,6 +154,30 @@
   </si>
   <si>
     <t>Facebook</t>
+  </si>
+  <si>
+    <t>rafael</t>
+  </si>
+  <si>
+    <t>INATIVO</t>
+  </si>
+  <si>
+    <t>vicente11940008234</t>
+  </si>
+  <si>
+    <t>ribeiro11994936125</t>
+  </si>
+  <si>
+    <t>janio4884053301</t>
+  </si>
+  <si>
+    <t>bento11964903523</t>
+  </si>
+  <si>
+    <t>luiza4896161077</t>
+  </si>
+  <si>
+    <t>Pagto</t>
   </si>
 </sst>
 </file>
@@ -166,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,15 +263,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -468,25 +496,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -800,7 +831,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -815,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -830,7 +861,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -846,10 +877,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,12 +902,14 @@
       <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="28"/>
       <c r="C7" s="3"/>
@@ -887,12 +920,12 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -906,21 +939,21 @@
       <c r="F8" s="8">
         <v>30</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8">
+      <c r="H8" s="8">
         <f>F8-E8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -934,21 +967,21 @@
       <c r="F9" s="8">
         <v>30</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8">
+      <c r="H9" s="8">
         <f>F9-E9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
@@ -962,21 +995,21 @@
       <c r="F10" s="8">
         <v>30</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="8">
+      <c r="H10" s="8">
         <f>F10-E10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="14">
         <v>24</v>
@@ -990,75 +1023,128 @@
       <c r="F11" s="8">
         <v>200</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="8">
+      <c r="H11" s="8">
         <f>F11-E11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="8">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8">
+        <f>F12-E12</f>
+        <v>-80</v>
+      </c>
+      <c r="I12" s="42">
+        <v>44397</v>
+      </c>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
         <v>30</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3" t="s">
+      <c r="F13" s="8">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="8">
+        <f>F13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8">
+        <v>30</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="8">
-        <f>F12-E12</f>
+      <c r="H14" s="8">
+        <f>F14-E14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="8">
+        <f>F15-E15</f>
         <v>-30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="42">
+        <v>44413</v>
+      </c>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3"/>
       <c r="B16" s="28"/>
       <c r="C16" s="14"/>
@@ -1066,8 +1152,8 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
@@ -1076,23 +1162,23 @@
       <c r="B17" s="30"/>
       <c r="C17" s="11">
         <f>SUM(C8:C16)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="9">
         <f>SUM(E8:E16)</f>
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="F17" s="9">
         <f>SUM(F8:F16)</f>
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="9">
-        <f>SUM(I8:I16)</f>
-        <v>-30</v>
-      </c>
+      <c r="H17" s="9">
+        <f>SUM(H8:H16)</f>
+        <v>-110</v>
+      </c>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9">
       <c r="C18" s="6"/>
@@ -1101,25 +1187,47 @@
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="C20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="C21" s="6"/>
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
@@ -1130,10 +1238,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -1143,22 +1251,14 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>39</v>
@@ -1171,193 +1271,210 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="11">
-        <f>SUM(C23:C26)</f>
-        <v>4</v>
-      </c>
-      <c r="D27" s="34"/>
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="C28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="11">
+        <f>SUM(C21:C27)</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="43">
+        <f>C28*H35</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="11">
-        <f>C17+C27</f>
-        <v>32</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="11">
+        <f>C17+C28</f>
+        <v>38</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="25">
-        <f>C4-C29</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="3" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="25">
+        <f>C4-C30</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9">
+        <f>F17</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="34">
+        <f>C30</f>
+        <v>38</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="10">
+        <f>C30*H35</f>
+        <v>190</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="C37" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="17">
+        <f>F33-F35</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="9">
-        <f>F17</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="35">
-        <f>C29</f>
-        <v>32</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="10">
-        <f>C29*H34</f>
-        <v>160</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="C36" s="32" t="s">
+      <c r="B39" s="37">
+        <v>97.25</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="36">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="17">
-        <f>F32-F34</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="38">
+      <c r="F39" s="10">
+        <f>B39+D39</f>
         <v>97.25</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="37">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="10">
-        <f>B38+D38</f>
-        <v>97.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="C40" s="4" t="s">
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="C41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="9">
-        <f>F32-F34-F38</f>
-        <v>32.75</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="D41" s="30"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="9">
+        <f>F33-F35-F39</f>
+        <v>62.75</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="9">
-        <f>F40/2</f>
-        <v>16.375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="F41" s="7"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="9">
+        <f>F41/2</f>
+        <v>31.375</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="16">
-        <f>I40</f>
-        <v>16.375</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="H42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="15">
-        <f>C42-F42</f>
-        <v>16.375</v>
-      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="16">
-        <f>I40</f>
-        <v>16.375</v>
+        <f>I41</f>
+        <v>31.375</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="F43" s="14"/>
       <c r="H43" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="15">
         <f>C43-F43</f>
-        <v>16.375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="40"/>
+        <v>31.375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="16">
+        <f>I41</f>
+        <v>31.375</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="H44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="15">
+        <f>C44-F44</f>
+        <v>31.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
